--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_4_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_4_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.24000000000019</v>
+        <v>23.15000000000018</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.265761274745217e-16</v>
+        <v>2.766910964797898e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>47.17375032173667</v>
+        <v>46.85925603551192</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[38.717861729627, 55.629638913846335]</t>
+          <t>[39.703209297831535, 54.0153027731923]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3396581285578097, 1.7421845146033483]</t>
+          <t>[1.3899739268135018, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.30311768795926</v>
+        <v>59.1586710533139</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.74165904533752, 66.864576330581]</t>
+          <t>[54.27185372466471, 64.04548838196308]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.54050050050065</v>
+        <v>17.42622622622636</v>
       </c>
       <c r="X2" t="n">
-        <v>16.79607607607622</v>
+        <v>16.82372372372386</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.28492492492508</v>
+        <v>18.02872872872887</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.6300000000001</v>
+        <v>22.21000000000003</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.265761274745217e-16</v>
+        <v>2.766910964797898e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>55.35548059937889</v>
+        <v>48.85352682776533</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[42.82154380139022, 67.88941739736757]</t>
+          <t>[34.9823716482893, 62.724682007241356]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>5.838507455280251e-11</v>
       </c>
       <c r="N3" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>5.838507455280251e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1949737182408082</v>
+        <v>-0.9308422677303092</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.06918422260157708, 0.45913165908319353]</t>
+          <t>[-1.2075791581366175, -0.6541053773240009]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.1470619549754364</v>
+        <v>3.32595728735896e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1470619549754364</v>
+        <v>3.32595728735896e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>71.62188613098411</v>
+        <v>63.32893697685498</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[63.894854501841166, 79.34891776012705]</t>
+          <t>[56.13475630477417, 70.5231176489358]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.92776776776786</v>
+        <v>3.290370370370375</v>
       </c>
       <c r="X3" t="n">
-        <v>20.97635635635644</v>
+        <v>2.312152152152155</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.87917917917928</v>
+        <v>4.268588588588596</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_4_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_4_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.15000000000018</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.766910964797898e-16</v>
+        <v>3.795634272222758e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.85925603551192</v>
+        <v>48.26789696383225</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[39.703209297831535, 54.0153027731923]</t>
+          <t>[40.07789703711705, 56.45789689054745]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.553500271144502</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3899739268135018, 1.7170266154755023]</t>
+          <t>[1.3522370781217319, 1.7296055650394262]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.1586710533139</v>
+        <v>66.26424643548459</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.27185372466471, 64.04548838196308]</t>
+          <t>[60.76668408216423, 71.76180878880496]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.42622622622636</v>
+        <v>17.38200200200212</v>
       </c>
       <c r="X2" t="n">
-        <v>16.82372372372386</v>
+        <v>16.69041041041053</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.02872872872887</v>
+        <v>18.07359359359372</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.21000000000003</v>
+        <v>22.24000000000004</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.032507412901396e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.766910964797898e-16</v>
+        <v>3.190863211515265e-14</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.85352682776533</v>
+        <v>44.84326510894044</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[34.9823716482893, 62.724682007241356]</t>
+          <t>[31.399222821693975, 58.2873073961869]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5.838507455280251e-11</v>
+        <v>4.506903739098789e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>5.838507455280251e-11</v>
+        <v>4.506903739098789e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.9308422677303092</v>
+        <v>-0.5786316799404627</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.2075791581366175, -0.6541053773240009]</t>
+          <t>[-0.8931054190385392, -0.2641579408423862]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.32595728735896e-10</v>
+        <v>0.0003653602911593001</v>
       </c>
       <c r="R3" t="n">
-        <v>3.32595728735896e-10</v>
+        <v>0.0003653602911593001</v>
       </c>
       <c r="S3" t="n">
-        <v>63.32893697685498</v>
+        <v>62.54963077593638</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[56.13475630477417, 70.5231176489358]</t>
+          <t>[55.38142608216964, 69.71783546970312]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.290370370370375</v>
+        <v>2.048128128128134</v>
       </c>
       <c r="X3" t="n">
-        <v>2.312152152152155</v>
+        <v>0.935015015015022</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.268588588588596</v>
+        <v>3.161241241241246</v>
       </c>
     </row>
   </sheetData>
